--- a/VIX.xlsx
+++ b/VIX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarantsev\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarantsev\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FDEB714-4475-4F5C-B6D3-9B5876B1C243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E969617-575A-4D58-8F2F-A0E1F56DF22E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{917E380F-07F9-44C5-A296-56BC8FAEA0CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" xr2:uid="{917E380F-07F9-44C5-A296-56BC8FAEA0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,10 @@
     <t>VIXCLS</t>
   </si>
   <si>
-    <t>to December 2024</t>
+    <t>to December 2025</t>
   </si>
   <si>
-    <t>Mar 90 - Dec 24</t>
+    <t>Mar 90 - Dec 25</t>
   </si>
 </sst>
 </file>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322AF600-86B8-4D7B-A8B2-95FED4923D4E}">
-  <dimension ref="A1:B469"/>
+  <dimension ref="A1:B481"/>
   <sheetViews>
-    <sheetView topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="F467" sqref="F467"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="B475" sqref="B475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4221,6 +4221,102 @@
         <v>15.79</v>
       </c>
     </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="3">
+        <v>45658</v>
+      </c>
+      <c r="B470" s="1">
+        <v>16.760000000000002</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="3">
+        <v>45689</v>
+      </c>
+      <c r="B471" s="1">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="3">
+        <v>45717</v>
+      </c>
+      <c r="B472" s="1">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="3">
+        <v>45748</v>
+      </c>
+      <c r="B473" s="1">
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B474" s="1">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="3">
+        <v>45809</v>
+      </c>
+      <c r="B475" s="1">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="3">
+        <v>45839</v>
+      </c>
+      <c r="B476" s="1">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="3">
+        <v>45870</v>
+      </c>
+      <c r="B477" s="1">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="3">
+        <v>45901</v>
+      </c>
+      <c r="B478" s="1">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="3">
+        <v>45931</v>
+      </c>
+      <c r="B479" s="1">
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="3">
+        <v>45962</v>
+      </c>
+      <c r="B480" s="1">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="3">
+        <v>45992</v>
+      </c>
+      <c r="B481" s="1">
+        <v>15.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4230,8 +4326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D668AC48-8511-42D7-A038-4D70B502149B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25"/>
